--- a/state_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
+++ b/state_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6543305336449</v>
+        <v>1.64849559014056</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.60625</v>
+        <v>4.45551</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -651,7 +651,7 @@
         <v>0.015</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0249935064447833</v>
+        <v>0.0249937965136094</v>
       </c>
       <c r="H3" t="n">
         <v>0.092</v>
@@ -732,7 +732,7 @@
         <v>0.015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0249935064447833</v>
+        <v>0.0249937965136094</v>
       </c>
       <c r="H4" t="n">
         <v>0.092</v>
@@ -813,7 +813,7 @@
         <v>230</v>
       </c>
       <c r="G5" t="n">
-        <v>1570.04836801749</v>
+        <v>1570.04364451063</v>
       </c>
       <c r="H5" t="n">
         <v>46000</v>
@@ -898,7 +898,7 @@
         <v>230</v>
       </c>
       <c r="G6" t="n">
-        <v>1570.04836801749</v>
+        <v>1570.04364451063</v>
       </c>
       <c r="H6" t="n">
         <v>46000</v>
@@ -983,7 +983,7 @@
         <v>230</v>
       </c>
       <c r="G7" t="n">
-        <v>1570.04836801749</v>
+        <v>1570.04364451063</v>
       </c>
       <c r="H7" t="n">
         <v>46000</v>
@@ -1068,7 +1068,7 @@
         <v>230</v>
       </c>
       <c r="G8" t="n">
-        <v>1570.04836801749</v>
+        <v>1570.04364451063</v>
       </c>
       <c r="H8" t="n">
         <v>46000</v>
@@ -1153,7 +1153,7 @@
         <v>0.02495</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0647846603603863</v>
+        <v>0.06478482558363489</v>
       </c>
       <c r="H9" t="n">
         <v>0.337233263136045</v>
@@ -1234,7 +1234,7 @@
         <v>0.02495</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0647846603603863</v>
+        <v>0.06478482558363489</v>
       </c>
       <c r="H10" t="n">
         <v>0.337233263136045</v>
@@ -1473,7 +1473,7 @@
         <v>0.405</v>
       </c>
       <c r="G13" t="n">
-        <v>0.425859649122807</v>
+        <v>0.425852631578947</v>
       </c>
       <c r="H13" t="n">
         <v>1.289</v>
@@ -1550,7 +1550,7 @@
         <v>0.405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.425859649122807</v>
+        <v>0.425852631578947</v>
       </c>
       <c r="H14" t="n">
         <v>1.289</v>
@@ -1939,13 +1939,13 @@
         <v>1.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.66290185327761</v>
+        <v>1.65735813886624</v>
       </c>
       <c r="H19" t="n">
         <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>4.44791</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
         <v>0.02459</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0625277430317137</v>
+        <v>0.0625270378773763</v>
       </c>
       <c r="H26" t="n">
         <v>0.337233263136045</v>
@@ -2603,7 +2603,7 @@
         <v>0.02459</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0625277430317137</v>
+        <v>0.0625270378773763</v>
       </c>
       <c r="H27" t="n">
         <v>0.337233263136045</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.3835</v>
+        <v>0.38375</v>
       </c>
       <c r="G30" t="n">
-        <v>0.416241379310345</v>
+        <v>0.416253448275862</v>
       </c>
       <c r="H30" t="n">
         <v>1.289</v>
@@ -2853,7 +2853,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.121</v>
+        <v>0.12095</v>
       </c>
       <c r="M30" t="n">
         <v>0.78248</v>
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.3835</v>
+        <v>0.38375</v>
       </c>
       <c r="G31" t="n">
-        <v>0.416241379310345</v>
+        <v>0.416253448275862</v>
       </c>
       <c r="H31" t="n">
         <v>1.289</v>
@@ -2930,7 +2930,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.121</v>
+        <v>0.12095</v>
       </c>
       <c r="M31" t="n">
         <v>0.78248</v>
@@ -3308,13 +3308,13 @@
         <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.62049229779097</v>
+        <v>1.74997340965918</v>
       </c>
       <c r="H36" t="n">
-        <v>5.11640959426188</v>
+        <v>11.741135238555</v>
       </c>
       <c r="I36" t="n">
-        <v>4.72884</v>
+        <v>4.46551</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4208,10 +4208,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.3135</v>
+        <v>0.3134</v>
       </c>
       <c r="G47" t="n">
-        <v>0.375034482758621</v>
+        <v>0.37503275862069</v>
       </c>
       <c r="H47" t="n">
         <v>1.289</v>
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.3135</v>
+        <v>0.3134</v>
       </c>
       <c r="G48" t="n">
-        <v>0.375034482758621</v>
+        <v>0.37503275862069</v>
       </c>
       <c r="H48" t="n">
         <v>1.289</v>
@@ -4677,13 +4677,13 @@
         <v>1.6</v>
       </c>
       <c r="G53" t="n">
-        <v>1.70898896164591</v>
+        <v>1.83838123989465</v>
       </c>
       <c r="H53" t="n">
-        <v>5.6</v>
+        <v>11.741135238555</v>
       </c>
       <c r="I53" t="n">
-        <v>5.3535</v>
+        <v>5.429</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>2.634</v>
       </c>
       <c r="N53" t="n">
-        <v>4.95206</v>
+        <v>4.97112</v>
       </c>
       <c r="O53" t="n">
         <v>1819385.9</v>
@@ -5260,7 +5260,7 @@
         <v>0.0151</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0484976275389723</v>
+        <v>0.048497095213872</v>
       </c>
       <c r="H60" t="n">
         <v>0.337233263136045</v>
@@ -5341,7 +5341,7 @@
         <v>0.0151</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0484976275389723</v>
+        <v>0.048497095213872</v>
       </c>
       <c r="H61" t="n">
         <v>0.337233263136045</v>
@@ -5422,7 +5422,7 @@
         <v>0.21185</v>
       </c>
       <c r="G62" t="n">
-        <v>0.280643302724505</v>
+        <v>0.2806491888447</v>
       </c>
       <c r="H62" t="n">
         <v>1.1827</v>
@@ -5503,7 +5503,7 @@
         <v>0.21185</v>
       </c>
       <c r="G63" t="n">
-        <v>0.280643302724505</v>
+        <v>0.2806491888447</v>
       </c>
       <c r="H63" t="n">
         <v>1.1827</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.276</v>
+        <v>0.27575</v>
       </c>
       <c r="G64" t="n">
-        <v>0.366357781077762</v>
+        <v>0.366361021197109</v>
       </c>
       <c r="H64" t="n">
         <v>1.289</v>
@@ -5591,10 +5591,10 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0505</v>
+        <v>0.0507</v>
       </c>
       <c r="M64" t="n">
-        <v>0.7413999999999999</v>
+        <v>0.74137</v>
       </c>
       <c r="N64" t="n">
         <v>0.9351</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.276</v>
+        <v>0.27575</v>
       </c>
       <c r="G65" t="n">
-        <v>0.366357781077762</v>
+        <v>0.366361021197109</v>
       </c>
       <c r="H65" t="n">
         <v>1.289</v>
@@ -5668,10 +5668,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0505</v>
+        <v>0.0507</v>
       </c>
       <c r="M65" t="n">
-        <v>0.7413999999999999</v>
+        <v>0.74137</v>
       </c>
       <c r="N65" t="n">
         <v>0.9351</v>
@@ -6046,13 +6046,13 @@
         <v>1.755</v>
       </c>
       <c r="G70" t="n">
-        <v>1.76164166263018</v>
+        <v>1.8888994963755</v>
       </c>
       <c r="H70" t="n">
-        <v>5.6</v>
+        <v>11.741135238555</v>
       </c>
       <c r="I70" t="n">
-        <v>5.32664</v>
+        <v>5.413</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
         <v>2.8</v>
       </c>
       <c r="N70" t="n">
-        <v>4.86138</v>
+        <v>4.9408</v>
       </c>
       <c r="O70" t="n">
         <v>1819385.9</v>
@@ -6629,7 +6629,7 @@
         <v>0.01014</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0276337916759101</v>
+        <v>0.0276239409111757</v>
       </c>
       <c r="H77" t="n">
         <v>0.310003519462233</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00471</v>
+        <v>0.00464</v>
       </c>
       <c r="M77" t="n">
         <v>0.04427</v>
@@ -6710,7 +6710,7 @@
         <v>0.01014</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0276337916759101</v>
+        <v>0.0276239409111757</v>
       </c>
       <c r="H78" t="n">
         <v>0.310003519462233</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00471</v>
+        <v>0.00464</v>
       </c>
       <c r="M78" t="n">
         <v>0.04427</v>
@@ -6791,7 +6791,7 @@
         <v>0.21185</v>
       </c>
       <c r="G79" t="n">
-        <v>0.288279156559553</v>
+        <v>0.288292885620932</v>
       </c>
       <c r="H79" t="n">
         <v>1.29</v>
@@ -6872,7 +6872,7 @@
         <v>0.21185</v>
       </c>
       <c r="G80" t="n">
-        <v>0.288279156559553</v>
+        <v>0.288292885620932</v>
       </c>
       <c r="H80" t="n">
         <v>1.29</v>
@@ -6949,18 +6949,18 @@
         <v>0.262</v>
       </c>
       <c r="G81" t="n">
-        <v>0.352679525486181</v>
+        <v>0.352700939889077</v>
       </c>
       <c r="H81" t="n">
         <v>1.305</v>
       </c>
       <c r="I81" t="n">
-        <v>1.163</v>
+        <v>1.16315</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.043</v>
+        <v>0.0431</v>
       </c>
       <c r="M81" t="n">
         <v>0.709</v>
@@ -7026,18 +7026,18 @@
         <v>0.262</v>
       </c>
       <c r="G82" t="n">
-        <v>0.352679525486181</v>
+        <v>0.352700939889077</v>
       </c>
       <c r="H82" t="n">
         <v>1.305</v>
       </c>
       <c r="I82" t="n">
-        <v>1.163</v>
+        <v>1.16315</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.043</v>
+        <v>0.0431</v>
       </c>
       <c r="M82" t="n">
         <v>0.709</v>
@@ -7415,13 +7415,13 @@
         <v>1.5</v>
       </c>
       <c r="G87" t="n">
-        <v>1.64658086031054</v>
+        <v>1.76912544095418</v>
       </c>
       <c r="H87" t="n">
-        <v>5.6</v>
+        <v>11.741135238555</v>
       </c>
       <c r="I87" t="n">
-        <v>5.30328</v>
+        <v>5.406</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -7432,7 +7432,7 @@
         <v>3.3328</v>
       </c>
       <c r="N87" t="n">
-        <v>4.79955</v>
+        <v>4.8416</v>
       </c>
       <c r="O87" t="n">
         <v>1819385.9</v>
@@ -7998,7 +7998,7 @@
         <v>0.00663</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0152090203990309</v>
+        <v>0.0151967549650764</v>
       </c>
       <c r="H94" t="n">
         <v>0.0809563561215748</v>
@@ -8009,7 +8009,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00471</v>
+        <v>0.00464</v>
       </c>
       <c r="M94" t="n">
         <v>0.02842</v>
@@ -8079,7 +8079,7 @@
         <v>0.00663</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0152090203990309</v>
+        <v>0.0151967549650764</v>
       </c>
       <c r="H95" t="n">
         <v>0.0809563561215748</v>
@@ -8090,7 +8090,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00471</v>
+        <v>0.00464</v>
       </c>
       <c r="M95" t="n">
         <v>0.02842</v>
@@ -8160,7 +8160,7 @@
         <v>0.21135</v>
       </c>
       <c r="G96" t="n">
-        <v>0.30201997290025</v>
+        <v>0.302042967265228</v>
       </c>
       <c r="H96" t="n">
         <v>1.29</v>
@@ -8241,7 +8241,7 @@
         <v>0.21135</v>
       </c>
       <c r="G97" t="n">
-        <v>0.30201997290025</v>
+        <v>0.302042967265228</v>
       </c>
       <c r="H97" t="n">
         <v>1.29</v>
@@ -8318,13 +8318,13 @@
         <v>0.2625</v>
       </c>
       <c r="G98" t="n">
-        <v>0.351096192152848</v>
+        <v>0.351117606555744</v>
       </c>
       <c r="H98" t="n">
         <v>1.305</v>
       </c>
       <c r="I98" t="n">
-        <v>1.163</v>
+        <v>1.16315</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -8395,13 +8395,13 @@
         <v>0.2625</v>
       </c>
       <c r="G99" t="n">
-        <v>0.351096192152848</v>
+        <v>0.351117606555744</v>
       </c>
       <c r="H99" t="n">
         <v>1.305</v>
       </c>
       <c r="I99" t="n">
-        <v>1.163</v>
+        <v>1.16315</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -8784,13 +8784,13 @@
         <v>0.7</v>
       </c>
       <c r="G104" t="n">
-        <v>1.5093521173958</v>
+        <v>1.62966861475502</v>
       </c>
       <c r="H104" t="n">
-        <v>5.6</v>
+        <v>11.741135238555</v>
       </c>
       <c r="I104" t="n">
-        <v>5.2916</v>
+        <v>5.4025</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -8801,7 +8801,7 @@
         <v>2.623</v>
       </c>
       <c r="N104" t="n">
-        <v>4.76864</v>
+        <v>4.792</v>
       </c>
       <c r="O104" t="n">
         <v>1819385.9</v>
@@ -9367,7 +9367,7 @@
         <v>0.01148</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0141408624820645</v>
+        <v>0.0141283855751108</v>
       </c>
       <c r="H111" t="n">
         <v>0.0595177725713376</v>
@@ -9448,7 +9448,7 @@
         <v>0.01148</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0141408624820645</v>
+        <v>0.0141283855751108</v>
       </c>
       <c r="H112" t="n">
         <v>0.0595177725713376</v>
@@ -9529,7 +9529,7 @@
         <v>0.267</v>
       </c>
       <c r="G113" t="n">
-        <v>0.330803306233583</v>
+        <v>0.330826300598562</v>
       </c>
       <c r="H113" t="n">
         <v>1.29</v>
@@ -9610,7 +9610,7 @@
         <v>0.267</v>
       </c>
       <c r="G114" t="n">
-        <v>0.330803306233583</v>
+        <v>0.330826300598562</v>
       </c>
       <c r="H114" t="n">
         <v>1.29</v>
@@ -9684,21 +9684,21 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.299</v>
+        <v>0.29895</v>
       </c>
       <c r="G115" t="n">
-        <v>0.382496192152848</v>
+        <v>0.38251427322241</v>
       </c>
       <c r="H115" t="n">
         <v>1.305</v>
       </c>
       <c r="I115" t="n">
-        <v>1.163</v>
+        <v>1.16315</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.043</v>
+        <v>0.0431</v>
       </c>
       <c r="M115" t="n">
         <v>0.7</v>
@@ -9761,21 +9761,21 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.299</v>
+        <v>0.29895</v>
       </c>
       <c r="G116" t="n">
-        <v>0.382496192152848</v>
+        <v>0.38251427322241</v>
       </c>
       <c r="H116" t="n">
         <v>1.305</v>
       </c>
       <c r="I116" t="n">
-        <v>1.163</v>
+        <v>1.16315</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.043</v>
+        <v>0.0431</v>
       </c>
       <c r="M116" t="n">
         <v>0.7</v>
@@ -10153,7 +10153,7 @@
         <v>0.7</v>
       </c>
       <c r="G121" t="n">
-        <v>1.42788842994781</v>
+        <v>1.42758861181729</v>
       </c>
       <c r="H121" t="n">
         <v>5.6</v>
@@ -10736,7 +10736,7 @@
         <v>0.01273</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0161161184084474</v>
+        <v>0.0161031958976739</v>
       </c>
       <c r="H128" t="n">
         <v>0.0595177725713376</v>
@@ -10817,7 +10817,7 @@
         <v>0.01273</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0161161184084474</v>
+        <v>0.0161031958976739</v>
       </c>
       <c r="H129" t="n">
         <v>0.0595177725713376</v>
@@ -10898,7 +10898,7 @@
         <v>0.267</v>
       </c>
       <c r="G130" t="n">
-        <v>0.33384997290025</v>
+        <v>0.333872967265228</v>
       </c>
       <c r="H130" t="n">
         <v>1.29</v>
@@ -10979,7 +10979,7 @@
         <v>0.267</v>
       </c>
       <c r="G131" t="n">
-        <v>0.33384997290025</v>
+        <v>0.333872967265228</v>
       </c>
       <c r="H131" t="n">
         <v>1.29</v>
@@ -11053,10 +11053,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.289</v>
+        <v>0.28895</v>
       </c>
       <c r="G132" t="n">
-        <v>0.388762858819514</v>
+        <v>0.388785939889077</v>
       </c>
       <c r="H132" t="n">
         <v>1.305</v>
@@ -11070,7 +11070,7 @@
         <v>0.06</v>
       </c>
       <c r="M132" t="n">
-        <v>0.7204</v>
+        <v>0.72037</v>
       </c>
       <c r="N132" t="n">
         <v>0.978</v>
@@ -11130,10 +11130,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.289</v>
+        <v>0.28895</v>
       </c>
       <c r="G133" t="n">
-        <v>0.388762858819514</v>
+        <v>0.388785939889077</v>
       </c>
       <c r="H133" t="n">
         <v>1.305</v>
@@ -11147,7 +11147,7 @@
         <v>0.06</v>
       </c>
       <c r="M133" t="n">
-        <v>0.7204</v>
+        <v>0.72037</v>
       </c>
       <c r="N133" t="n">
         <v>0.978</v>
@@ -11522,7 +11522,7 @@
         <v>0.67</v>
       </c>
       <c r="G138" t="n">
-        <v>1.21110629073535</v>
+        <v>1.21087288400795</v>
       </c>
       <c r="H138" t="n">
         <v>4.73</v>
@@ -12105,7 +12105,7 @@
         <v>0.0176</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0193218275781875</v>
+        <v>0.0193085150123722</v>
       </c>
       <c r="H145" t="n">
         <v>0.0595177725713376</v>
@@ -12186,7 +12186,7 @@
         <v>0.0176</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0193218275781875</v>
+        <v>0.0193085150123722</v>
       </c>
       <c r="H146" t="n">
         <v>0.0595177725713376</v>
@@ -12267,7 +12267,7 @@
         <v>0.222</v>
       </c>
       <c r="G147" t="n">
-        <v>0.323993223907537</v>
+        <v>0.324010622122571</v>
       </c>
       <c r="H147" t="n">
         <v>1.29</v>
@@ -12348,7 +12348,7 @@
         <v>0.222</v>
       </c>
       <c r="G148" t="n">
-        <v>0.323993223907537</v>
+        <v>0.324010622122571</v>
       </c>
       <c r="H148" t="n">
         <v>1.29</v>
@@ -12425,7 +12425,7 @@
         <v>0.26</v>
       </c>
       <c r="G149" t="n">
-        <v>0.377954316347544</v>
+        <v>0.377981273246069</v>
       </c>
       <c r="H149" t="n">
         <v>1.305</v>
@@ -12502,7 +12502,7 @@
         <v>0.26</v>
       </c>
       <c r="G150" t="n">
-        <v>0.377954316347544</v>
+        <v>0.377981273246069</v>
       </c>
       <c r="H150" t="n">
         <v>1.305</v>
@@ -12891,7 +12891,7 @@
         <v>0.433</v>
       </c>
       <c r="G155" t="n">
-        <v>0.938011713738622</v>
+        <v>0.937741999298074</v>
       </c>
       <c r="H155" t="n">
         <v>3.36</v>
@@ -13134,7 +13134,7 @@
         <v>240</v>
       </c>
       <c r="G158" t="n">
-        <v>1385.38483811075</v>
+        <v>1454.9626526309</v>
       </c>
       <c r="H158" t="n">
         <v>34000</v>
@@ -13219,7 +13219,7 @@
         <v>240</v>
       </c>
       <c r="G159" t="n">
-        <v>1385.38483811075</v>
+        <v>1454.9626526309</v>
       </c>
       <c r="H159" t="n">
         <v>34000</v>
@@ -13304,7 +13304,7 @@
         <v>240</v>
       </c>
       <c r="G160" t="n">
-        <v>1385.38483811075</v>
+        <v>1454.9626526309</v>
       </c>
       <c r="H160" t="n">
         <v>34000</v>
@@ -13389,7 +13389,7 @@
         <v>240</v>
       </c>
       <c r="G161" t="n">
-        <v>1385.38483811075</v>
+        <v>1454.9626526309</v>
       </c>
       <c r="H161" t="n">
         <v>34000</v>
@@ -13474,7 +13474,7 @@
         <v>0.01805</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0195981375434134</v>
+        <v>0.0195959951375506</v>
       </c>
       <c r="H162" t="n">
         <v>0.0595177725713376</v>
@@ -13555,7 +13555,7 @@
         <v>0.01805</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0195981375434134</v>
+        <v>0.0195959951375506</v>
       </c>
       <c r="H163" t="n">
         <v>0.0595177725713376</v>
@@ -13636,7 +13636,7 @@
         <v>0.191</v>
       </c>
       <c r="G164" t="n">
-        <v>0.283278796278674</v>
+        <v>0.283288218621318</v>
       </c>
       <c r="H164" t="n">
         <v>0.925</v>
@@ -13717,7 +13717,7 @@
         <v>0.191</v>
       </c>
       <c r="G165" t="n">
-        <v>0.283278796278674</v>
+        <v>0.283288218621318</v>
       </c>
       <c r="H165" t="n">
         <v>0.925</v>
@@ -13794,7 +13794,7 @@
         <v>0.227</v>
       </c>
       <c r="G166" t="n">
-        <v>0.328220338983051</v>
+        <v>0.328245762711864</v>
       </c>
       <c r="H166" t="n">
         <v>1.05</v>
@@ -13871,7 +13871,7 @@
         <v>0.227</v>
       </c>
       <c r="G167" t="n">
-        <v>0.328220338983051</v>
+        <v>0.328245762711864</v>
       </c>
       <c r="H167" t="n">
         <v>1.05</v>
@@ -14260,7 +14260,7 @@
         <v>0.29</v>
       </c>
       <c r="G172" t="n">
-        <v>0.851671766269421</v>
+        <v>0.851352367589825</v>
       </c>
       <c r="H172" t="n">
         <v>2.95</v>
@@ -14503,7 +14503,7 @@
         <v>208</v>
       </c>
       <c r="G175" t="n">
-        <v>1401.75771946668</v>
+        <v>1471.33553398683</v>
       </c>
       <c r="H175" t="n">
         <v>34000</v>
@@ -14588,7 +14588,7 @@
         <v>208</v>
       </c>
       <c r="G176" t="n">
-        <v>1401.75771946668</v>
+        <v>1471.33553398683</v>
       </c>
       <c r="H176" t="n">
         <v>34000</v>
@@ -14673,7 +14673,7 @@
         <v>208</v>
       </c>
       <c r="G177" t="n">
-        <v>1401.75771946668</v>
+        <v>1471.33553398683</v>
       </c>
       <c r="H177" t="n">
         <v>34000</v>
@@ -14758,7 +14758,7 @@
         <v>208</v>
       </c>
       <c r="G178" t="n">
-        <v>1401.75771946668</v>
+        <v>1471.33553398683</v>
       </c>
       <c r="H178" t="n">
         <v>34000</v>
@@ -14843,7 +14843,7 @@
         <v>0.02051</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0208149136781002</v>
+        <v>0.0208155109930834</v>
       </c>
       <c r="H179" t="n">
         <v>0.0654828768945474</v>
@@ -14924,7 +14924,7 @@
         <v>0.02051</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0208149136781002</v>
+        <v>0.0208155109930834</v>
       </c>
       <c r="H180" t="n">
         <v>0.0654828768945474</v>
@@ -15160,10 +15160,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.23</v>
+        <v>0.2305</v>
       </c>
       <c r="G183" t="n">
-        <v>0.360881355932203</v>
+        <v>0.360906779661017</v>
       </c>
       <c r="H183" t="n">
         <v>1.223</v>
@@ -15237,10 +15237,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.23</v>
+        <v>0.2305</v>
       </c>
       <c r="G184" t="n">
-        <v>0.360881355932203</v>
+        <v>0.360906779661017</v>
       </c>
       <c r="H184" t="n">
         <v>1.223</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.693860302073131</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.564</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2.1327</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2.3586</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0195593220338983</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.02694</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0195593220338983</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.02694</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>208</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1354.72536449531</v>
+      </c>
+      <c r="H192" t="n">
+        <v>34000</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3696</v>
+      </c>
+      <c r="J192" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K192" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L192" t="n">
+        <v>365</v>
+      </c>
+      <c r="M192" t="n">
+        <v>882.05</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1731.98</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>208</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1354.72536449531</v>
+      </c>
+      <c r="H193" t="n">
+        <v>34000</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3696</v>
+      </c>
+      <c r="J193" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K193" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L193" t="n">
+        <v>365</v>
+      </c>
+      <c r="M193" t="n">
+        <v>882.05</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1731.98</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>208</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1354.72536449531</v>
+      </c>
+      <c r="H194" t="n">
+        <v>34000</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3696</v>
+      </c>
+      <c r="J194" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K194" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L194" t="n">
+        <v>365</v>
+      </c>
+      <c r="M194" t="n">
+        <v>882.05</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1731.98</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>208</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1354.72536449531</v>
+      </c>
+      <c r="H195" t="n">
+        <v>34000</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3696</v>
+      </c>
+      <c r="J195" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="K195" t="n">
+        <v>45.7627118644068</v>
+      </c>
+      <c r="L195" t="n">
+        <v>365</v>
+      </c>
+      <c r="M195" t="n">
+        <v>882.05</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1731.98</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.01701</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0334535067227495</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.754196307511233</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.04599</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.02096</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.03278</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.04159</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.01701</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0334535067227495</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.754196307511233</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.04599</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.02096</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.03278</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.04159</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.328966101694915</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.65972</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.90452</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.328966101694915</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.65972</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.90452</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.36914406779661</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.223</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.0005</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.7139799999999999</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.93746</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.36914406779661</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.223</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.0005</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.7139799999999999</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.93746</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.534237288135593</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1.1712</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.534237288135593</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1.1712</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0708305084745763</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.23675</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.14476</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.23078</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.0708305084745763</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.23675</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.14476</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.23078</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
+++ b/state_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
@@ -570,13 +570,13 @@
         <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64849559014056</v>
+        <v>1.65542787199738</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.45551</v>
+        <v>4.60938</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -1939,13 +1939,13 @@
         <v>1.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.65735813886624</v>
+        <v>1.66415177508593</v>
       </c>
       <c r="H19" t="n">
         <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.44791</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -3308,13 +3308,13 @@
         <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.74997340965918</v>
+        <v>1.65894861632196</v>
       </c>
       <c r="H36" t="n">
-        <v>11.741135238555</v>
+        <v>6.94123855404677</v>
       </c>
       <c r="I36" t="n">
-        <v>4.46551</v>
+        <v>4.78821</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4677,10 +4677,10 @@
         <v>1.6</v>
       </c>
       <c r="G53" t="n">
-        <v>1.83838123989465</v>
+        <v>1.74735644655743</v>
       </c>
       <c r="H53" t="n">
-        <v>11.741135238555</v>
+        <v>6.94123855404677</v>
       </c>
       <c r="I53" t="n">
         <v>5.429</v>
@@ -4694,7 +4694,7 @@
         <v>2.634</v>
       </c>
       <c r="N53" t="n">
-        <v>4.97112</v>
+        <v>5.11379</v>
       </c>
       <c r="O53" t="n">
         <v>1819385.9</v>
@@ -6046,10 +6046,10 @@
         <v>1.755</v>
       </c>
       <c r="G70" t="n">
-        <v>1.8888994963755</v>
+        <v>1.79659379090418</v>
       </c>
       <c r="H70" t="n">
-        <v>11.741135238555</v>
+        <v>6.94123855404677</v>
       </c>
       <c r="I70" t="n">
         <v>5.413</v>
@@ -7415,10 +7415,10 @@
         <v>1.5</v>
       </c>
       <c r="G87" t="n">
-        <v>1.76912544095418</v>
+        <v>1.68023846531514</v>
       </c>
       <c r="H87" t="n">
-        <v>11.741135238555</v>
+        <v>6.94123855404677</v>
       </c>
       <c r="I87" t="n">
         <v>5.406</v>
@@ -8784,10 +8784,10 @@
         <v>0.7</v>
       </c>
       <c r="G104" t="n">
-        <v>1.62966861475502</v>
+        <v>1.54239776594577</v>
       </c>
       <c r="H104" t="n">
-        <v>11.741135238555</v>
+        <v>6.94123855404677</v>
       </c>
       <c r="I104" t="n">
         <v>5.4025</v>
@@ -13134,7 +13134,7 @@
         <v>240</v>
       </c>
       <c r="G158" t="n">
-        <v>1454.9626526309</v>
+        <v>1333.87368563786</v>
       </c>
       <c r="H158" t="n">
         <v>34000</v>
@@ -13219,7 +13219,7 @@
         <v>240</v>
       </c>
       <c r="G159" t="n">
-        <v>1454.9626526309</v>
+        <v>1333.87368563786</v>
       </c>
       <c r="H159" t="n">
         <v>34000</v>
@@ -13304,7 +13304,7 @@
         <v>240</v>
       </c>
       <c r="G160" t="n">
-        <v>1454.9626526309</v>
+        <v>1333.87368563786</v>
       </c>
       <c r="H160" t="n">
         <v>34000</v>
@@ -13389,7 +13389,7 @@
         <v>240</v>
       </c>
       <c r="G161" t="n">
-        <v>1454.9626526309</v>
+        <v>1333.87368563786</v>
       </c>
       <c r="H161" t="n">
         <v>34000</v>
@@ -14503,7 +14503,7 @@
         <v>208</v>
       </c>
       <c r="G175" t="n">
-        <v>1471.33553398683</v>
+        <v>1350.2465669938</v>
       </c>
       <c r="H175" t="n">
         <v>34000</v>
@@ -14588,7 +14588,7 @@
         <v>208</v>
       </c>
       <c r="G176" t="n">
-        <v>1471.33553398683</v>
+        <v>1350.2465669938</v>
       </c>
       <c r="H176" t="n">
         <v>34000</v>
@@ -14673,7 +14673,7 @@
         <v>208</v>
       </c>
       <c r="G177" t="n">
-        <v>1471.33553398683</v>
+        <v>1350.2465669938</v>
       </c>
       <c r="H177" t="n">
         <v>34000</v>
@@ -14758,7 +14758,7 @@
         <v>208</v>
       </c>
       <c r="G178" t="n">
-        <v>1471.33553398683</v>
+        <v>1350.2465669938</v>
       </c>
       <c r="H178" t="n">
         <v>34000</v>
@@ -15872,7 +15872,7 @@
         <v>208</v>
       </c>
       <c r="G192" t="n">
-        <v>1354.72536449531</v>
+        <v>1233.63639750227</v>
       </c>
       <c r="H192" t="n">
         <v>34000</v>
@@ -15957,7 +15957,7 @@
         <v>208</v>
       </c>
       <c r="G193" t="n">
-        <v>1354.72536449531</v>
+        <v>1233.63639750227</v>
       </c>
       <c r="H193" t="n">
         <v>34000</v>
@@ -16042,7 +16042,7 @@
         <v>208</v>
       </c>
       <c r="G194" t="n">
-        <v>1354.72536449531</v>
+        <v>1233.63639750227</v>
       </c>
       <c r="H194" t="n">
         <v>34000</v>
@@ -16127,7 +16127,7 @@
         <v>208</v>
       </c>
       <c r="G195" t="n">
-        <v>1354.72536449531</v>
+        <v>1233.63639750227</v>
       </c>
       <c r="H195" t="n">
         <v>34000</v>
